--- a/Output/Relatorio-Erros-FR065748.xlsx
+++ b/Output/Relatorio-Erros-FR065748.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D0F56A-103F-4CA6-A6FA-CFC98D842ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25233F6-B254-4EA5-B8AD-93CD2A354E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D9FA4DE-5464-4A21-9960-6B99DFE42888}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-FR065748.xlsx
+++ b/Output/Relatorio-Erros-FR065748.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D79E8B-8657-487A-AB9E-5E0B476DF61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142FE780-3F02-4465-943F-33B21D55ED07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51C1B9DD-B423-4472-B001-617F70928E39}"/>
   </bookViews>
